--- a/app/Recursos Marcas/Majo'R/Plantilla Carga Major'R.xlsx
+++ b/app/Recursos Marcas/Majo'R/Plantilla Carga Major'R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo\Documents\MOLOVA\Recursos Marcas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Joel/Documents/Molova/molova_api/app/Recursos Marcas/Majo'R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F42FEC1D-090F-483A-9265-0EF59CAE81D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC067CFF-7A16-8549-B932-5900698BBBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="6" r:id="rId1"/>
@@ -860,15 +860,6 @@
     <t xml:space="preserve">Bota Eleonor Extra Larga </t>
   </si>
   <si>
-    <t xml:space="preserve">Botin exotic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botin kim </t>
-  </si>
-  <si>
-    <t>Botin santorini</t>
-  </si>
-  <si>
     <t>Bota Gucci</t>
   </si>
   <si>
@@ -888,6 +879,15 @@
   </si>
   <si>
     <t xml:space="preserve">Botin Fashion Ly </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botin Kim </t>
+  </si>
+  <si>
+    <t>Botin Santorini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botin Exotic </t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1139,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1437,37 +1437,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="3" width="48.85546875" customWidth="1"/>
-    <col min="4" max="4" width="106.28515625" customWidth="1"/>
-    <col min="5" max="5" width="44.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="3" width="48.83203125" customWidth="1"/>
+    <col min="4" max="4" width="106.33203125" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>47</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>69</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>50</v>
       </c>
@@ -1523,7 +1523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>71</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>57</v>
       </c>
@@ -1551,7 +1551,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="23"/>
       <c r="C14" s="11"/>
       <c r="D14" s="6" t="s">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>74</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>76</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>109</v>
       </c>
@@ -1613,193 +1613,193 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C20" s="21"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="15" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="16" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" s="16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B34" s="15" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" s="15" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" s="15"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B49" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B50" s="16" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B53" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B54" s="15"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B55" s="15" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B56" s="15" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B58" s="15" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B59" s="15" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B60" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B61" s="15"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B62" s="19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B63" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B64" s="15"/>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="17" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B69" s="17" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="17"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="18" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
         <v>103</v>
       </c>
@@ -1818,30 +1818,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" hidden="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>138</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>139</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>140</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>142</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>141</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>143</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>144</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>145</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>146</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>147</v>
       </c>
@@ -2091,9 +2091,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D12" s="20">
         <v>130000</v>
@@ -2108,15 +2108,15 @@
         <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D13" s="20">
         <v>120000</v>
@@ -2131,9 +2131,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D14" s="20">
         <v>120000</v>
@@ -2145,7 +2145,7 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J14" t="s">
         <v>133</v>
@@ -2154,9 +2154,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D15" s="20">
         <v>120000</v>
@@ -2171,9 +2171,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="20">
         <v>120000</v>
@@ -2191,9 +2191,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D17" s="20">
         <v>120000</v>
@@ -2208,9 +2208,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D18" s="20">
         <v>120000</v>
@@ -2228,9 +2228,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D19" s="20">
         <v>120000</v>
@@ -2248,9 +2248,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D20" s="20">
         <v>120000</v>
@@ -2262,7 +2262,7 @@
         <v>27</v>
       </c>
       <c r="I20" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J20" t="s">
         <v>133</v>
@@ -2329,16 +2329,16 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2468,10 +2468,10 @@
         <v>34</v>
       </c>
       <c r="J5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G6" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G7" t="s">
         <v>28</v>
       </c>
@@ -2493,7 +2493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I8" t="s">
         <v>37</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I9" t="s">
         <v>38</v>
       </c>
@@ -2509,7 +2509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I10" t="s">
         <v>39</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="I11" t="s">
         <v>40</v>
       </c>
@@ -2525,17 +2525,17 @@
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
         <v>136</v>
       </c>
